--- a/biology/Zoologie/Beaufortia_(poisson)/Beaufortia_(poisson).xlsx
+++ b/biology/Zoologie/Beaufortia_(poisson)/Beaufortia_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaufortia est un genre de poissons téléostéens de la famille des Gastromyzontidae et de l'ordre des Cypriniformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (16 juillet 2015)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (16 juillet 2015):
 Beaufortia cyclica Chen, 1980
 Beaufortia fasciolata Nguyen, 2005
 Beaufortia huangguoshuensis Zheng &amp; Zhang, 1987
@@ -527,9 +541,43 @@
 Beaufortia polylepis Chen, 1982
 Beaufortia szechuanensis (Fang, 1930)
 Beaufortia triocellata Nguyen, 2005
-Beaufortia zebroidus (Fang, 1930)
-Note
-Selon Kottelat, M. (2012)[2]:
+Beaufortia zebroidus (Fang, 1930)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beaufortia_(poisson)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beaufortia_(poisson)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Kottelat, M. (2012):
 Beaufortia buas (Đ. Y. Mai, 1978) (espèce inquirenda dans Beaufortia)
 Beaufortia cyclica Yi-Yu Chen, 1980
 Beaufortia daon (Đ. Y. Mai, 1978)
